--- a/player-analysis/server/customer_model_data/days_since_last_activity.csv.xlsx
+++ b/player-analysis/server/customer_model_data/days_since_last_activity.csv.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDocs\angular_projects\graphs-app\customer_model_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prototype_login\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,42 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>distribution</t>
   </si>
   <si>
-    <t>3 to 6 months</t>
-  </si>
-  <si>
-    <t>no activity</t>
-  </si>
-  <si>
-    <t>entire life cycle stage</t>
-  </si>
-  <si>
     <t>customers</t>
   </si>
   <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>future_value</t>
+  </si>
+  <si>
+    <t>days_since_last_activity</t>
+  </si>
+  <si>
     <t>2016_09_10</t>
   </si>
   <si>
-    <t>2016_08_27</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>future_value</t>
-  </si>
-  <si>
-    <t>days_since_last_activity</t>
+    <t>IN last 7 Days</t>
+  </si>
+  <si>
+    <t>&gt; 90 Days</t>
+  </si>
+  <si>
+    <t>IN Last 30 Days</t>
+  </si>
+  <si>
+    <t>IN last 60 Days</t>
+  </si>
+  <si>
+    <t>IN Last 90 days</t>
+  </si>
+  <si>
+    <t>2016_09_25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,9 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,36 +414,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -443,16 +451,17 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>278</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
+        <f>C2/SUM($C$2:$C$6)</f>
+        <v>1.8291880510593498E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>35.76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -460,16 +469,17 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>54726</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>808</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
+        <f t="shared" ref="D3:D6" si="0">C3/SUM($C$2:$C$6)</f>
+        <v>5.3164890117120674E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>82.44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -477,67 +487,143 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>54728</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1038</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>6.8298460323726801E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>103.99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>54728</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>951</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>6.2574022897749701E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>54726</v>
+        <v>12123</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0.79767074615080935</v>
+      </c>
+      <c r="E6" s="2">
+        <v>249.67</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" s="3">
+        <v>278</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>400</v>
+        <f>C7/SUM($C$2:$C$6)</f>
+        <v>1.8291880510593498E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>35.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>808</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ref="D8:D11" si="1">C8/SUM($C$2:$C$6)</f>
+        <v>5.3164890117120674E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>82.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1038</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8298460323726801E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>103.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>951</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2574022897749701E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>12123</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79767074615080935</v>
+      </c>
+      <c r="E11" s="2">
+        <v>249.67</v>
       </c>
     </row>
   </sheetData>
